--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H2">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>0.8187590905961111</v>
+        <v>1.684271952582</v>
       </c>
       <c r="R2">
-        <v>7.368831815365001</v>
+        <v>15.158447573238</v>
       </c>
       <c r="S2">
-        <v>0.02747633767809694</v>
+        <v>0.03953876810189297</v>
       </c>
       <c r="T2">
-        <v>0.02747633767809694</v>
+        <v>0.03953876810189298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>2.714658835302889</v>
+        <v>2.783107476884889</v>
       </c>
       <c r="R3">
-        <v>24.431929517726</v>
+        <v>25.047967291964</v>
       </c>
       <c r="S3">
-        <v>0.09109991412163235</v>
+        <v>0.06533424781105156</v>
       </c>
       <c r="T3">
-        <v>0.09109991412163235</v>
+        <v>0.06533424781105156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.2452802876768889</v>
+        <v>0.3740528624806667</v>
       </c>
       <c r="R4">
-        <v>2.207522589092</v>
+        <v>3.366475762326</v>
       </c>
       <c r="S4">
-        <v>0.008231241750347132</v>
+        <v>0.008780998439592727</v>
       </c>
       <c r="T4">
-        <v>0.008231241750347134</v>
+        <v>0.008780998439592728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.161357666666667</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H5">
-        <v>3.484073</v>
+        <v>15.504521</v>
       </c>
       <c r="I5">
-        <v>0.1270850363824361</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J5">
-        <v>0.1270850363824361</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.008270415063555555</v>
+        <v>7.310862291651</v>
       </c>
       <c r="R5">
-        <v>0.074433735572</v>
+        <v>65.797760624859</v>
       </c>
       <c r="S5">
-        <v>0.0002775428323596696</v>
+        <v>0.1716245932441777</v>
       </c>
       <c r="T5">
-        <v>0.0002775428323596696</v>
+        <v>0.1716245932441777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>3.643571048622778</v>
+        <v>12.08054048230022</v>
       </c>
       <c r="R6">
-        <v>32.792139437605</v>
+        <v>108.724864340702</v>
       </c>
       <c r="S6">
-        <v>0.1222728268130849</v>
+        <v>0.2835941594485134</v>
       </c>
       <c r="T6">
-        <v>0.1222728268130849</v>
+        <v>0.2835941594485134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>12.08054048230022</v>
+        <v>1.623638607293667</v>
       </c>
       <c r="R7">
-        <v>108.724864340702</v>
+        <v>14.612747465643</v>
       </c>
       <c r="S7">
-        <v>0.4054049761865051</v>
+        <v>0.03811538289683612</v>
       </c>
       <c r="T7">
-        <v>0.4054049761865051</v>
+        <v>0.03811538289683613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.168173666666667</v>
+        <v>4.037194</v>
       </c>
       <c r="H8">
-        <v>15.504521</v>
+        <v>12.111582</v>
       </c>
       <c r="I8">
-        <v>0.565542861868062</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J8">
-        <v>0.565542861868062</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +927,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>1.091525169298222</v>
+        <v>5.710986372042001</v>
       </c>
       <c r="R8">
-        <v>9.823726523684002</v>
+        <v>51.398877348378</v>
       </c>
       <c r="S8">
-        <v>0.03662996170698313</v>
+        <v>0.1340670462695045</v>
       </c>
       <c r="T8">
-        <v>0.03662996170698314</v>
+        <v>0.1340670462695045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.168173666666667</v>
+        <v>4.037194</v>
       </c>
       <c r="H9">
-        <v>15.504521</v>
+        <v>12.111582</v>
       </c>
       <c r="I9">
-        <v>0.565542861868062</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J9">
-        <v>0.565542861868062</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007121333333333333</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N9">
-        <v>0.021364</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q9">
-        <v>0.03680428740488889</v>
+        <v>9.436889837209334</v>
       </c>
       <c r="R9">
-        <v>0.331238586644</v>
+        <v>84.93200853488399</v>
       </c>
       <c r="S9">
-        <v>0.00123509716148886</v>
+        <v>0.2215337008400159</v>
       </c>
       <c r="T9">
-        <v>0.00123509716148886</v>
+        <v>0.2215337008400159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,78 +1033,78 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7050016666666666</v>
+        <v>0.314161</v>
       </c>
       <c r="N10">
-        <v>2.115005</v>
+        <v>0.942483</v>
       </c>
       <c r="O10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q10">
-        <v>1.980278006497222</v>
+        <v>1.268328904234</v>
       </c>
       <c r="R10">
-        <v>17.822502058475</v>
+        <v>11.414960138106</v>
       </c>
       <c r="S10">
-        <v>0.06645518544827594</v>
+        <v>0.02977438551093763</v>
       </c>
       <c r="T10">
-        <v>0.06645518544827596</v>
+        <v>0.02977438551093764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.808898333333333</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H11">
-        <v>8.426695</v>
+        <v>0.240007</v>
       </c>
       <c r="I11">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477471</v>
       </c>
       <c r="J11">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,60 +1113,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.337487333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N11">
-        <v>7.012461999999999</v>
+        <v>4.243779</v>
       </c>
       <c r="O11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P11">
-        <v>0.716842176819984</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q11">
-        <v>6.565764274787778</v>
+        <v>0.113170740717</v>
       </c>
       <c r="R11">
-        <v>59.09187847309</v>
+        <v>1.018536666453</v>
       </c>
       <c r="S11">
-        <v>0.2203372865118466</v>
+        <v>0.002656715660597019</v>
       </c>
       <c r="T11">
-        <v>0.2203372865118466</v>
+        <v>0.002656715660597019</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.808898333333333</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H12">
-        <v>8.426695</v>
+        <v>0.240007</v>
       </c>
       <c r="I12">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477471</v>
       </c>
       <c r="J12">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1175,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2112013333333334</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N12">
-        <v>0.6336040000000001</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O12">
-        <v>0.0647695589083904</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P12">
-        <v>0.06476955890839041</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q12">
-        <v>0.5932430731977779</v>
+        <v>0.1870044408037778</v>
       </c>
       <c r="R12">
-        <v>5.339187658780001</v>
+        <v>1.683039967234</v>
       </c>
       <c r="S12">
-        <v>0.01990835545106013</v>
+        <v>0.004389982987978754</v>
       </c>
       <c r="T12">
-        <v>0.01990835545106014</v>
+        <v>0.004389982987978755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.808898333333333</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H13">
-        <v>8.426695</v>
+        <v>0.240007</v>
       </c>
       <c r="I13">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477471</v>
       </c>
       <c r="J13">
-        <v>0.3073721017495019</v>
+        <v>0.007636717437477472</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.007121333333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N13">
-        <v>0.021364</v>
+        <v>0.942483</v>
       </c>
       <c r="O13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P13">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q13">
-        <v>0.02000310133111111</v>
+        <v>0.02513361304233333</v>
       </c>
       <c r="R13">
-        <v>0.18002791198</v>
+        <v>0.226202517381</v>
       </c>
       <c r="S13">
-        <v>0.0006712743383192792</v>
+        <v>0.0005900187889016981</v>
       </c>
       <c r="T13">
-        <v>0.0006712743383192792</v>
+        <v>0.0005900187889016983</v>
       </c>
     </row>
   </sheetData>
